--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1716418.735936983</v>
+        <v>1813110.105607468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5691457.588559822</v>
+        <v>6214594.242775853</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>77.32167183180101</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -710,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5039400136233</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>148.7223419617671</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>5.08148512872441</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +907,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>93.32846217980361</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>259.0591824725728</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>57.17380082342439</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1108,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>28.64436039545059</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>51.85622704831127</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>61.37033924555244</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1300,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>210.1409105078477</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>99.28616603324262</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>247.2064561999634</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>104.630258540403</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>3.139541480023094</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1664,7 +1666,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>207.2612031876807</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1768,16 +1770,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>98.73120706589846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>120.1472970361153</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -2011,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>103.3456594571954</v>
       </c>
       <c r="I19" t="n">
-        <v>14.14416275345333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2132,7 +2134,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2254,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>79.58540461744359</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>240.9739924675</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3196,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>33.28996520190871</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3244,10 +3246,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3475,22 +3477,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3554,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>187.453773041968</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>93.33789293904182</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>405.1418907993692</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="42">
@@ -3904,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3916,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T43" t="n">
-        <v>162.9119051916208</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790279</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3985,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>181.2023100115477</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>216.7309227903437</v>
       </c>
       <c r="V46" t="n">
-        <v>35.51678257079496</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1382.829461272046</v>
+        <v>1292.14448398095</v>
       </c>
       <c r="C2" t="n">
-        <v>944.6869884554692</v>
+        <v>1258.042415204777</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8176076703178</v>
+        <v>1179.939716384776</v>
       </c>
       <c r="E2" t="n">
-        <v>479.0428628286129</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2191.908811411918</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.291861345744</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1424.436406756777</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.334347376492</v>
+        <v>1318.649370085396</v>
       </c>
       <c r="Y2" t="n">
-        <v>1405.08862771655</v>
+        <v>1314.403650425453</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>878.2081529410129</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="C4" t="n">
-        <v>705.6464414242379</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D4" t="n">
-        <v>539.7684486257606</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>370.0104448764978</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>193.303390838254</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1814.864601426188</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1542.838197012479</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1297.446442345892</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="Y4" t="n">
-        <v>1070.02677166</v>
+        <v>428.0970671107308</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>978.3722678587817</v>
+        <v>571.7798232520863</v>
       </c>
       <c r="C5" t="n">
-        <v>944.270199082609</v>
+        <v>537.6777544759136</v>
       </c>
       <c r="D5" t="n">
-        <v>912.4008182974576</v>
+        <v>505.8083736907622</v>
       </c>
       <c r="E5" t="n">
-        <v>882.6664774961569</v>
+        <v>476.0740328894614</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>452.2470073390731</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="M5" t="n">
-        <v>801.8819313892766</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892766</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.186649932281</v>
+        <v>2042.329799663907</v>
       </c>
       <c r="V5" t="n">
-        <v>2232.915476013288</v>
+        <v>1679.712849597734</v>
       </c>
       <c r="W5" t="n">
-        <v>1828.060021424321</v>
+        <v>1274.857395008767</v>
       </c>
       <c r="X5" t="n">
-        <v>1408.917558003632</v>
+        <v>1259.755335628482</v>
       </c>
       <c r="Y5" t="n">
-        <v>1404.67183834369</v>
+        <v>998.0793937369941</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>73.33088177303154</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392439</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>674.5331706342554</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1013.503637065321</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>840.941925548546</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>675.0639327500687</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>505.305929000806</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1678.133681136788</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1432.7419264702</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1205.322255784308</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1298.040072665448</v>
+        <v>1671.95961582883</v>
       </c>
       <c r="C8" t="n">
-        <v>1263.938003889275</v>
+        <v>1637.857547052657</v>
       </c>
       <c r="D8" t="n">
         <v>1201.947762227101</v>
@@ -4802,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>2670.060826431428</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4847,7 +4849,7 @@
         <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1320.299239109952</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2489.401636434797</v>
+        <v>2457.797280463905</v>
       </c>
       <c r="U10" t="n">
-        <v>2210.968635687902</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V10" t="n">
-        <v>1924.013127558332</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W10" t="n">
-        <v>1651.986723144624</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.8298907678518</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>56.12639965677761</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>56.12639965677761</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677761</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862318</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862318</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862318</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862318</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374606</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127228</v>
+        <v>4875.533979193861</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.252755711919</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>2327.030453028936</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>1964.413502962762</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>1559.558048373796</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>1140.415584953106</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>732.1294612527596</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.1900728172352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>406.7483977834476</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O12" t="n">
-        <v>406.7483977834476</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P12" t="n">
-        <v>1101.31259353607</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>744.2024157797618</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>571.6407042629868</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>405.7627114645095</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>236.0047077152468</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F13" t="n">
-        <v>59.29765367700296</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G13" t="n">
-        <v>59.29765367700296</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677761</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562946</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141401</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394506</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264937</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851228</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.440705184641</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>936.021034498749</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>885.391660624306</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>885.391660624306</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>885.391660624306</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>885.391660624306</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862318</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1185.945282862318</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M14" t="n">
-        <v>1185.945282862318</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862318</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374606</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127228</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2586.252755711919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2327.030453028936</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2117.675702334309</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>1712.820247745342</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1293.677784324653</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>885.391660624306</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.1900728172352</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M15" t="n">
-        <v>406.7483977834476</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N15" t="n">
-        <v>406.7483977834476</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>903.4437844817653</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>730.8820729649902</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>631.1535809792342</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E16" t="n">
-        <v>461.3955772299715</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F16" t="n">
-        <v>284.6885231917278</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2651.368188264949</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2405.488741843405</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2127.05574109651</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1840.10023296694</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.073828553232</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1322.682073886644</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1095.262403200752</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5516,28 +5518,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>525.9458847132731</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1601.005850966132</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785925</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785925</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1057.146432354979</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>884.5847208382039</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>718.7067280397266</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>548.9487242904638</v>
       </c>
       <c r="F19" t="n">
-        <v>282.1391483292483</v>
+        <v>372.24167025222</v>
       </c>
       <c r="G19" t="n">
-        <v>116.5478733550759</v>
+        <v>206.6503952780477</v>
       </c>
       <c r="H19" t="n">
-        <v>116.5478733550759</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1248.965051073966</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,10 +5755,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>475.2748675296863</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="M20" t="n">
         <v>1632.322702740237</v>
@@ -5774,10 +5776,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
         <v>4809.322912595856</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>153.0458362120693</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1602.717526820355</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5999,13 +6001,13 @@
         <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1612.575493976557</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3895.354312623555</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4723.664187456951</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6306,19 +6308,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>1224.761663117513</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O27" t="n">
-        <v>1224.761663117513</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P27" t="n">
         <v>1224.761663117513</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4729.704604581732</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4729.704604581732</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>3343.699788461171</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>3171.138076944395</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>3005.260084145918</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>2835.502080396655</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>2801.87585291998</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V34" t="n">
-        <v>2035.366634303136</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="35">
@@ -6929,37 +6931,37 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722817</v>
@@ -7017,19 +7019,19 @@
         <v>426.819165236992</v>
       </c>
       <c r="K36" t="n">
-        <v>426.819165236992</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P36" t="n">
         <v>1224.761663117513</v>
@@ -7123,19 +7125,19 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2538.261260176947</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2259.828259430053</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.872751300483</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W37" t="n">
-        <v>1700.846346886775</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.454592220187</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
         <v>1373.137619601648</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
         <v>1221.073045167952</v>
@@ -7172,16 +7174,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7202,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7260,7 +7262,7 @@
         <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>426.819165236992</v>
+        <v>1625.543999329491</v>
       </c>
       <c r="N39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7363,19 +7365,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2124.452389553093</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1837.496881423524</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1565.470477009816</v>
+        <v>1654.13042623514</v>
       </c>
       <c r="X40" t="n">
-        <v>1320.078722343228</v>
+        <v>1408.738671568553</v>
       </c>
       <c r="Y40" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1740.810721806322</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1302.668248989745</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>866.7584641641897</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>457.5242310335137</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677761</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677761</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>750.6905954094003</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>1445.254791162023</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2139.818986914646</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2637.165918085823</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2637.165918085823</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085823</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.31998283888</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.252755711919</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.252755711919</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2586.252755711919</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2586.252755711919</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2167.11029229123</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2167.11029229123</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677761</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>380.68472462299</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>380.68472462299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>380.68472462299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>380.68472462299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>380.68472462299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>380.68472462299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>825.5243822097708</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>652.9626706929957</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>487.0846778945184</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>487.0846778945184</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562746</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2700.68128113089</v>
       </c>
       <c r="T43" t="n">
-        <v>2327.56933957141</v>
+        <v>2454.801834709345</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.136338824515</v>
+        <v>2176.36883396245</v>
       </c>
       <c r="V43" t="n">
-        <v>1762.180830694946</v>
+        <v>1889.413325832881</v>
       </c>
       <c r="W43" t="n">
-        <v>1490.154426281237</v>
+        <v>1617.386921419172</v>
       </c>
       <c r="X43" t="n">
-        <v>1244.76267161465</v>
+        <v>1371.995166752585</v>
       </c>
       <c r="Y43" t="n">
-        <v>1017.343000928758</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1514.609125050947</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1076.46665223437</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>640.5568674088145</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>457.5242310335137</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>457.5242310335137</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862318</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374606</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374606</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374606</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127228</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085823</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.31998283888</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022717</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022717</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.668109022717</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.051158956544</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.051158956544</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1940.908695535854</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1940.908695535854</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056513</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.1900728172352</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>995.2823859590335</v>
+        <v>849.8497331100081</v>
       </c>
       <c r="C46" t="n">
-        <v>822.7206744422584</v>
+        <v>677.288021593233</v>
       </c>
       <c r="D46" t="n">
-        <v>656.8426816437811</v>
+        <v>677.288021593233</v>
       </c>
       <c r="E46" t="n">
-        <v>487.0846778945184</v>
+        <v>507.5300178439703</v>
       </c>
       <c r="F46" t="n">
-        <v>310.3776238562746</v>
+        <v>330.8229638057265</v>
       </c>
       <c r="G46" t="n">
-        <v>144.7863488821023</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2073.461689724752</v>
       </c>
       <c r="V46" t="n">
-        <v>1931.938834444208</v>
+        <v>1786.506181595183</v>
       </c>
       <c r="W46" t="n">
-        <v>1659.9124300305</v>
+        <v>1514.479777181474</v>
       </c>
       <c r="X46" t="n">
-        <v>1414.520675363912</v>
+        <v>1269.088022514887</v>
       </c>
       <c r="Y46" t="n">
-        <v>1187.101004678021</v>
+        <v>1041.668351828995</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,13 +8142,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932195</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097199</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q12" t="n">
-        <v>505.9401914193702</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097199</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932195</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -9173,19 +9175,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>655.9980117748592</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,22 +9239,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9480,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>51.29797569827242</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9647,16 +9649,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,25 +9877,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,16 +10126,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>662.0994432140315</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10667,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10908,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1233.847129715411</v>
+        <v>23.01396396541122</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.57999570972</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>502.3706375466436</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097199</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932195</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>186.5545918884475</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.43016517136708</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>135.3636110865061</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>151.729577377831</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,16 +23658,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.48800580459407</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>47.91312667565481</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933383</v>
       </c>
       <c r="I19" t="n">
-        <v>73.62918697961808</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>84.63380825304894</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.67467827192567</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>141.6500182959526</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>88.19489769745772</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>175.9682474305296</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>24.29510659391855</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T43" t="n">
-        <v>80.50874676570848</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>248.23468738174</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>58.91774794908204</v>
       </c>
       <c r="V46" t="n">
-        <v>248.5691704774789</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>530442.0589261664</v>
+        <v>520464.8572800325</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>530442.0589261664</v>
+        <v>528919.7388955493</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358140.1268374165</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358140.1268374165</v>
+        <v>541098.758045891</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>541098.758045891</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>541098.758045891</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>358140.1268374164</v>
+        <v>541098.7580458912</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>358140.1268374165</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>287689.2477427711</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>287689.2477427711</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
@@ -26338,22 +26340,22 @@
         <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="L2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="M2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="N2" t="n">
+        <v>434657.5069133155</v>
+      </c>
+      <c r="O2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="P2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="L2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="M2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="N2" t="n">
-        <v>434657.5069133156</v>
-      </c>
-      <c r="O2" t="n">
-        <v>287689.2477427711</v>
-      </c>
-      <c r="P2" t="n">
-        <v>287689.2477427711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045609</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461093</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340698</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148010.1942457891</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>148010.1942457891</v>
+        <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
         <v>148010.1942457892</v>
       </c>
       <c r="E4" t="n">
-        <v>36113.14695271202</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271202</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="H4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962275</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962272</v>
       </c>
       <c r="O4" t="n">
-        <v>36113.14695271202</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="P4" t="n">
-        <v>36113.14695271202</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915097</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3600.878482004788</v>
+        <v>47008.77046149021</v>
       </c>
       <c r="C6" t="n">
-        <v>220098.8201020401</v>
+        <v>148796.5254125529</v>
       </c>
       <c r="D6" t="n">
-        <v>220098.8201020401</v>
+        <v>208571.2245520571</v>
       </c>
       <c r="E6" t="n">
-        <v>198749.040450452</v>
+        <v>120022.3339768506</v>
       </c>
       <c r="F6" t="n">
-        <v>208920.0370509081</v>
+        <v>302377.4431979004</v>
       </c>
       <c r="G6" t="n">
-        <v>144317.966251791</v>
+        <v>302377.4431979004</v>
       </c>
       <c r="H6" t="n">
-        <v>302377.4431979003</v>
+        <v>302377.4431979004</v>
       </c>
       <c r="I6" t="n">
         <v>302377.4431979004</v>
       </c>
       <c r="J6" t="n">
-        <v>127726.0944801943</v>
+        <v>191362.9778529102</v>
       </c>
       <c r="K6" t="n">
-        <v>302377.4431979003</v>
+        <v>249331.5885591281</v>
       </c>
       <c r="L6" t="n">
-        <v>302377.4431979004</v>
+        <v>292985.141471278</v>
       </c>
       <c r="M6" t="n">
-        <v>293888.3614945597</v>
+        <v>150177.2722599127</v>
       </c>
       <c r="N6" t="n">
         <v>302377.4431979003</v>
       </c>
       <c r="O6" t="n">
-        <v>208920.0370509081</v>
+        <v>302377.4431979004</v>
       </c>
       <c r="P6" t="n">
-        <v>208920.0370509081</v>
+        <v>302377.4431979003</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.57999570972</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186313</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750253</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186313</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186313</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750253</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>354.2290151454989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>1.126139642530006</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>237.8563519911972</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>265.6623183857081</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>145.1440799907703</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>117.7661826744369</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>247.0043103439751</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>370.1803477317475</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>33.27974144948155</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>143.651671086679</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>370.2350542247758</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.13097499434645</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,10 +35108,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>204.0749767191082</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>667.5152066078567</v>
-      </c>
-      <c r="O8" t="n">
-        <v>640.5448952297625</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097199</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932195</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>69.04441372935707</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097199</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="Q12" t="n">
-        <v>505.9401914193702</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097199</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932195</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,7 +35740,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35886,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,19 +35895,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>655.9980117748592</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,10 +35983,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>702.7389601124037</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>51.29797569827242</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638367</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,16 +36369,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>575.2670899541636</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,25 +36597,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081364</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.4482437666393</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36844,16 +36846,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>216.3468123274661</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37081,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>662.0994432140315</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,10 +37387,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L36" t="n">
-        <v>806.0025231116373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37400,7 +37402,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>531.8762684426497</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
-        <v>1233.847129715411</v>
+        <v>23.01396396541122</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>701.57999570972</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.57999570972</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097202</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>502.3706375466436</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097199</v>
+        <v>231.4545770548061</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932195</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097202</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813110.105607468</v>
+        <v>1812584.923238436</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -664,19 +664,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>77.32167183180101</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>195.7616106346027</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>272.3498998852572</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>5.08148512872441</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>2.911382118448846</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>259.0591824725728</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>114.3486586083432</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1110,10 +1110,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>28.64436039545059</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51.85622704831127</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>30.1577499769271</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1302,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>210.1409105078477</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>104.630258540403</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>148.8597651552994</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>120.1472970361153</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1815,10 +1815,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830822</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>139.7824903885306</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>103.3456594571954</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>126.7641785672301</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>79.58540461744359</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2970,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018409</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3198,13 +3198,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>33.28996520190871</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3286,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3474,19 +3474,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>152.5004364948334</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>157.8824880649885</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>93.33789293904182</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170349</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735226246</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790279</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>216.7309227903437</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1292.14448398095</v>
+        <v>729.203080354842</v>
       </c>
       <c r="C2" t="n">
-        <v>1258.042415204777</v>
+        <v>695.1010115786694</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.939716384776</v>
+        <v>663.231630793518</v>
       </c>
       <c r="E2" t="n">
-        <v>751.3580421220443</v>
+        <v>633.4972899922172</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>770.8100258395735</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>755.7079664592883</v>
       </c>
       <c r="Y2" t="n">
-        <v>1314.403650425453</v>
+        <v>751.4622467993457</v>
       </c>
     </row>
     <row r="3">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428.0970671107308</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>897.7700739369707</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="X4" t="n">
-        <v>428.0970671107308</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y4" t="n">
-        <v>428.0970671107308</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>571.7798232520863</v>
+        <v>2073.031189930082</v>
       </c>
       <c r="C5" t="n">
-        <v>537.6777544759136</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>505.8083736907622</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>476.0740328894614</v>
+        <v>1169.244591486649</v>
       </c>
       <c r="F5" t="n">
-        <v>452.2470073390731</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>50.84917596233704</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>557.7649106726439</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726439</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726439</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.55210234689</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663907</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.712849597734</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="W5" t="n">
-        <v>1274.857395008767</v>
+        <v>2518.678539455218</v>
       </c>
       <c r="X5" t="n">
-        <v>1259.755335628482</v>
+        <v>2503.576480074933</v>
       </c>
       <c r="Y5" t="n">
-        <v>998.0793937369941</v>
+        <v>2499.33076041499</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="M6" t="n">
-        <v>674.5331706342554</v>
+        <v>401.054384716147</v>
       </c>
       <c r="N6" t="n">
-        <v>674.5331706342554</v>
+        <v>401.054384716147</v>
       </c>
       <c r="O6" t="n">
-        <v>674.5331706342554</v>
+        <v>431.6596472970922</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>593.0357356940372</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>420.4740241772621</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>254.5960313787848</v>
       </c>
       <c r="H7" t="n">
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
         <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2066.146995686534</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>2066.146995686534</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.95961582883</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.857547052657</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.947762227101</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2639.59845271736</v>
       </c>
       <c r="W8" t="n">
-        <v>1743.687422190584</v>
+        <v>2638.783402168797</v>
       </c>
       <c r="X8" t="n">
-        <v>1728.585362810299</v>
+        <v>2219.640938748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1724.339643150356</v>
+        <v>1811.354815047761</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2457.797280463905</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5044,31 +5044,31 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3895.354312623555</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4875.533979193861</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4875.533979193861</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
         <v>4809.322912595856</v>
@@ -5080,13 +5080,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1336.088111831086</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D13" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>367.6278435343481</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5360,25 +5360,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>617.7751448769883</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
         <v>496.4142387799021</v>
@@ -5436,52 +5436,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354733</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066089</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745699</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>525.9458847132731</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1601.005850966132</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722817</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.146432354979</v>
+        <v>1057.146432354982</v>
       </c>
       <c r="C19" t="n">
-        <v>884.5847208382039</v>
+        <v>884.5847208382071</v>
       </c>
       <c r="D19" t="n">
-        <v>718.7067280397266</v>
+        <v>718.7067280397298</v>
       </c>
       <c r="E19" t="n">
-        <v>548.9487242904638</v>
+        <v>548.948724290467</v>
       </c>
       <c r="F19" t="n">
-        <v>372.24167025222</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>206.6503952780477</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5694,31 +5694,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="X19" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759861</v>
       </c>
       <c r="Y19" t="n">
-        <v>1248.965051073966</v>
+        <v>1248.965051073969</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1632.322702740237</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
         <v>5113.04201353898</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,22 +6071,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
         <v>1648.327823655249</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>662.2922315783794</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>537.3858472836109</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>367.6278435343481</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>190.9207894961043</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3343.699788461171</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>3171.138076944395</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>3005.260084145918</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>2835.502080396655</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>5091.624192244353</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>4845.744745822809</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>4567.311745075915</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>4280.356236946345</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>4008.329832532637</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>3762.938077866049</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>3535.518407180158</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7122,25 +7122,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V37" t="n">
-        <v>2005.426305625833</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7174,16 +7174,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7204,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1625.543999329491</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.13042623514</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,10 +7417,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
         <v>2588.899621423628</v>
@@ -7456,7 +7456,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716155</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731382</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238754</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856316</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7587,34 +7587,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.68128113089</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709345</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.36883396245</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832881</v>
+        <v>1748.411126173565</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419172</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.995166752585</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7654,46 +7654,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1601.005850966133</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2758.053686176684</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.8497331100081</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>677.288021593233</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>677.288021593233</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>507.5300178439703</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>330.8229638057265</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2073.461689724752</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1786.506181595183</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1514.479777181474</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1269.088022514887</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1041.668351828995</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611007</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8303,16 +8303,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,16 +8452,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8692,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,19 +8780,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>433.7499898166689</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,13 +9646,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458549</v>
@@ -9661,7 +9661,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>662.0994432140315</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>531.8762684426497</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>23.01396396541122</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>231.4545770548061</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.43016517136708</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.91312667565481</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.6516710866751</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>35.15749310933069</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>35.15749310933383</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>44.07191583437722</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>84.63380825304894</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.782726914053</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6500182959526</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>5.148518520151299</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>175.9682474305296</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>139.5921776627271</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627208</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>58.91774794908204</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>541098.7580458911</v>
+        <v>541098.758045891</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>541098.758045891</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>541098.7580458912</v>
+        <v>541098.7580458911</v>
       </c>
     </row>
     <row r="16">
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.5389095869</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="E2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133154</v>
       </c>
       <c r="F2" t="n">
+        <v>434657.5069133158</v>
+      </c>
+      <c r="G2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="G2" t="n">
-        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="K2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="L2" t="n">
         <v>434657.5069133157</v>
@@ -26349,13 +26349,13 @@
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
+        <v>434657.5069133156</v>
+      </c>
+      <c r="P2" t="n">
         <v>434657.5069133157</v>
-      </c>
-      <c r="P2" t="n">
-        <v>434657.5069133156</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,10 +26420,10 @@
         <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
-        <v>154981.0317940156</v>
+        <v>154981.0317940155</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
         <v>54561.82510962275</v>
@@ -26432,34 +26432,34 @@
         <v>54561.82510962277</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="J4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="K4" t="n">
-        <v>54561.82510962275</v>
-      </c>
       <c r="L4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="M4" t="n">
-        <v>54561.82510962275</v>
+        <v>54561.82510962269</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962272</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.8251096227</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47008.77046149021</v>
+        <v>47008.77046149009</v>
       </c>
       <c r="C6" t="n">
-        <v>148796.5254125529</v>
+        <v>148796.525412553</v>
       </c>
       <c r="D6" t="n">
-        <v>208571.2245520571</v>
+        <v>208571.2245520574</v>
       </c>
       <c r="E6" t="n">
-        <v>120022.3339768506</v>
+        <v>119999.1096374677</v>
       </c>
       <c r="F6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="G6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="H6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="I6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585176</v>
       </c>
       <c r="J6" t="n">
-        <v>191362.9778529102</v>
+        <v>191339.7535135276</v>
       </c>
       <c r="K6" t="n">
-        <v>249331.5885591281</v>
+        <v>249308.3642197452</v>
       </c>
       <c r="L6" t="n">
-        <v>292985.141471278</v>
+        <v>292961.9171318954</v>
       </c>
       <c r="M6" t="n">
-        <v>150177.2722599127</v>
+        <v>150154.0479205302</v>
       </c>
       <c r="N6" t="n">
-        <v>302377.4431979003</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="O6" t="n">
-        <v>302377.4431979004</v>
+        <v>302354.2188585178</v>
       </c>
       <c r="P6" t="n">
-        <v>302377.4431979003</v>
+        <v>302354.2188585178</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27384,19 +27384,19 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>354.2290151454989</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>227.8271446602816</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -27551,13 +27551,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>11.73605316301661</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>237.8563519911972</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>397.8955179246282</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.1440799907703</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>24.15449395818601</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27830,10 +27830,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>247.0043103439751</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.1803477317474</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>226.4723296792262</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.3636110865063</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>33.27974144948155</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.626503470622263e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28508,7 +28508,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>3.817562007254101e-12</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-7.993458127291335e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30194,7 +30194,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.402787305217472e-12</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-8.988773068867788e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-7.993458127291335e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.402787305217472e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>370.2350542247758</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>72.80589558611007</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>30.91440664741941</v>
       </c>
       <c r="P6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191082</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,16 +35172,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35412,25 +35412,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>69.04441372935707</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>433.7499898166689</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35728,10 +35728,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908451</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>427.9646913560541</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821571</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>575.2670899541636</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
         <v>836.6766412458546</v>
@@ -36381,7 +36381,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>662.0994432140315</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327043</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>531.8762684426497</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>23.01396396541122</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37955,7 +37955,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165056</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821539</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>231.4545770548061</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
